--- a/model_exports/labels/2.0_False_False_2_2.xlsx
+++ b/model_exports/labels/2.0_False_False_2_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,33 +453,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-1025792018793021440</t>
+          <t>t-536414184204800001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-577847446270832640</t>
+          <t>t-536957598252417024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-1032695855143370753</t>
+          <t>t-1033470726521544704</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,20 +492,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-1033108055162941440</t>
+          <t>t-494463913853874176</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-497136108463865857</t>
+          <t>t-494829977268146176</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-521738184288251906</t>
+          <t>t-495010606047821824</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-521768704259162112</t>
+          <t>t-495017350790668289</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-548786999432605696</t>
+          <t>t-495805012929708033</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,20 +557,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-549031298929786880</t>
+          <t>t-497139824780787712</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-573511311906115584</t>
+          <t>t-497141925451792384</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-573530576818434048</t>
+          <t>t-497161697371893760</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-583290347863851008</t>
+          <t>t-497242468627124224</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-585505175835648000</t>
+          <t>t-497474058641215489</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,20 +622,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-622509518346268672</t>
+          <t>t-497485019451883520</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-658615758751211520</t>
+          <t>t-517204809452380161</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-658616745809330176</t>
+          <t>t-561169293573115904</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-658617481574092800</t>
+          <t>t-610974241895354368</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,37 +674,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-701855843747241986</t>
+          <t>t-624374054338867201</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-719525216439910400</t>
+          <t>t-763135506188206084</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-719704738913083392</t>
+          <t>t-763744681616257025</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -713,24 +713,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-765195503457882112</t>
+          <t>t-764320260182806528</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-765297031346655232</t>
+          <t>t-1027818664391847936</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -739,11 +739,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-865644367372967936</t>
+          <t>t-1027909740905553920</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-866152720700514304</t>
+          <t>t-497136108463865857</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-867771334083923968</t>
+          <t>t-501433457286053889</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,33 +778,33 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-945777508007464961</t>
+          <t>t-501490224640573440</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-968259732858376192</t>
+          <t>t-605091889558261760</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-977248381662892039</t>
+          <t>t-605138894867161088</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,33 +817,33 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-977294782048428032</t>
+          <t>t-605351836636311552</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-1003697920015851520</t>
+          <t>t-681917420068564992</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-1018804138195513344</t>
+          <t>t-682618491283857408</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,59 +856,59 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-1018807229267496962</t>
+          <t>t-784233737512890376</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-1018819644377923585</t>
+          <t>t-784234780590080001</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-1018962868379750402</t>
+          <t>t-893450286144131072</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-1019003195874512897</t>
+          <t>t-902187406123835394</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-1019014466770333697</t>
+          <t>t-902225607563644928</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-1019698120098222080</t>
+          <t>t-922305869466890240</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,20 +934,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-1030587514820669441</t>
+          <t>t-937797554313551873</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-1030625730407874563</t>
+          <t>t-937878737382772737</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,7 +960,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-1031145618503360513</t>
+          <t>t-938887720075702272</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,24 +973,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-1031309689848508416</t>
+          <t>t-1000042512319483904</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-832760057259384834</t>
+          <t>t-1000115343019343872</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,20 +999,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-832777578633064449</t>
+          <t>t-1000762573766184961</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-778024515909537792</t>
+          <t>t-1001659726067830785</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,20 +1025,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-819315426853273600</t>
+          <t>t-1018804138195513344</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-925753092301295616</t>
+          <t>t-1018807229267496962</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-1024774127687749633</t>
+          <t>t-1018819644377923585</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,24 +1064,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-615459121891012608</t>
+          <t>t-1018962868379750402</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-753035409660186624</t>
+          <t>t-1019003195874512897</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1090,24 +1090,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-852681395487035392</t>
+          <t>t-1019014466770333697</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-924921911510949890</t>
+          <t>t-1019698120098222080</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-924939317381758976</t>
+          <t>t-1022084644039258112</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-925210606361300992</t>
+          <t>t-1052350536111013888</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-925257914817892352</t>
+          <t>t-1054831014869123073</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,11 +1155,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-928952366598037506</t>
+          <t>t-1054887299698380800</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1168,20 +1168,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-847556586600095745</t>
+          <t>t-1055927061867585536</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-979396065278427139</t>
+          <t>t-513019810272137216</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,20 +1194,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-611838090278121474</t>
+          <t>t-502103720327671808</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-612267884463673344</t>
+          <t>t-507610683022643200</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,7 +1220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-612280320520425472</t>
+          <t>t-819315426853273600</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,20 +1233,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-773307883878363136</t>
+          <t>t-863147106038624256</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-923950718209359874</t>
+          <t>t-863168507747454977</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-923955178688188416</t>
+          <t>t-1026541253037453312</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-923988304076464128</t>
+          <t>t-1026546271392165888</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-764358428777078784</t>
+          <t>t-1026556162186117121</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-587673014826741760</t>
+          <t>t-1026678249978585088</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-587688170382163969</t>
+          <t>t-1026720073308925953</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-858145943971037184</t>
+          <t>t-1028077400779841537</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,33 +1337,33 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-858516314167627776</t>
+          <t>t-573406774969044992</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-868226298719633408</t>
+          <t>t-573566918876995584</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1005217349610426371</t>
+          <t>t-574621995633111040</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,20 +1376,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-921072406919352320</t>
+          <t>t-594694315915350017</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-921102349552275456</t>
+          <t>t-619895281761423360</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,20 +1402,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-921122924505026560</t>
+          <t>t-687924478219685888</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-921266455856939008</t>
+          <t>t-687934498701455360</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,33 +1428,33 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-921341244332113926</t>
+          <t>t-746432967740882945</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-921699631360176128</t>
+          <t>t-765818303898058752</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-843394427347320833</t>
+          <t>t-798458981752573952</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,59 +1467,59 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-1014948759934066688</t>
+          <t>t-798478057195507713</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-1042485319055155201</t>
+          <t>t-798508699044220928</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-928583361618169856</t>
+          <t>t-798530247192965122</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-547652103607697408</t>
+          <t>t-799607144802750464</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-552038248218767360</t>
+          <t>t-950256330316615680</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-552266751304798209</t>
+          <t>t-1015939762513956864</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,33 +1545,33 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-583930739512713216</t>
+          <t>t-1017282491193782272</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-862822528103759872</t>
+          <t>t-1047054739547013120</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-936531630868529152</t>
+          <t>t-1047068713986547712</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-560163999057448960</t>
+          <t>t-1047079117244399617</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,72 +1597,72 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-758769139905204224</t>
+          <t>t-1047083573738500096</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-987722164903251968</t>
+          <t>t-1049900608294137856</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-1062308914354642944</t>
+          <t>t-764602141449170944</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-658242856386187264</t>
+          <t>t-618057796345593856</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-901151504714870784</t>
+          <t>t-676063553162379265</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1040717985516859392</t>
+          <t>t-752623570010812416</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1060963338337902593</t>
+          <t>t-752689111933214722</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,20 +1688,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-907490044335636480</t>
+          <t>t-752696262009450496</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-698546841881853953</t>
+          <t>t-752724839081791488</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-745905684248694789</t>
+          <t>t-876870634885844994</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1727,33 +1727,33 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-745992462448140288</t>
+          <t>t-876897987485630464</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-746083614291562497</t>
+          <t>t-876995236253376512</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-826760200636002305</t>
+          <t>t-903082857492566018</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-849724022598139904</t>
+          <t>t-910574474956812289</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-878162982953402368</t>
+          <t>t-1016140956322713601</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,33 +1792,33 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-948592886060380161</t>
+          <t>t-767772450964725760</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-972059634101047296</t>
+          <t>t-512768543989825541</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-987005505154535425</t>
+          <t>t-611854657594486784</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-941641219024748544</t>
+          <t>t-768897641946181632</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-988107827615952898</t>
+          <t>t-768901368044134400</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-992484226795823105</t>
+          <t>t-1018620410819219456</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-994221853211267073</t>
+          <t>t-697497279213625344</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,24 +1883,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-903173716451909632</t>
+          <t>t-697558252012355585</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-694715871097278464</t>
+          <t>t-770209564532674560</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-858172777098072064</t>
+          <t>t-774727266823581696</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-858203574500818944</t>
+          <t>t-840253641885913088</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,11 +1935,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-858267644507631616</t>
+          <t>t-858145943971037184</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,124 +1948,124 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-858374877706932224</t>
+          <t>t-858516314167627776</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-858419995453292545</t>
+          <t>t-878362748232622081</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-883080365442838528</t>
+          <t>t-1000477141224558594</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-883215183442739200</t>
+          <t>t-533211918698553344</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-769366123678621696</t>
+          <t>t-533272996883210240</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-946987966475448325</t>
+          <t>t-533345881412878336</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-780856348493832192</t>
+          <t>t-672497431242756096</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-781685141211058176</t>
+          <t>t-921072406919352320</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-860527262709493760</t>
+          <t>t-921102349552275456</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-888405582352437248</t>
+          <t>t-921122924505026560</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-889517070559334400</t>
+          <t>t-921266455856939008</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,46 +2091,46 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-1025638750783778816</t>
+          <t>t-921341244332113926</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-1054403005032947712</t>
+          <t>t-921699631360176128</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-910451192064614401</t>
+          <t>t-953648628647706624</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-1021604631217164289</t>
+          <t>t-687545498014760960</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,46 +2143,46 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-1021652512343031808</t>
+          <t>t-783792055160082432</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-1021683870188503041</t>
+          <t>t-818386811332558848</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-1021786238024527873</t>
+          <t>t-818898970961473536</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-708426270242164736</t>
+          <t>t-926892709188702208</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,24 +2195,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-726041703153545216</t>
+          <t>t-583930739512713216</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-726754497737826305</t>
+          <t>t-949552218650365952</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-764530848079155200</t>
+          <t>t-760723550810628097</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-764927216257949696</t>
+          <t>t-622526710358114306</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,50 +2247,50 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-780146894357929984</t>
+          <t>t-625832003070509056</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-784456849215123457</t>
+          <t>t-626848405877301248</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-815857432882769920</t>
+          <t>t-692803310668087296</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-816077181575106560</t>
+          <t>t-778616752993214464</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2299,59 +2299,59 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-898515685369946113</t>
+          <t>t-873219337427062785</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-925358435398488064</t>
+          <t>t-876969646846603270</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-952979792495816704</t>
+          <t>t-879367414802153472</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-1047282657053298690</t>
+          <t>t-1035595539918848000</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-1050012662120235008</t>
+          <t>t-595961510528180224</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-628272138890252288</t>
+          <t>t-611182304984109057</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-697902764966301696</t>
+          <t>t-904717770524372993</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,20 +2390,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-886785151694512128</t>
+          <t>t-917499339278254080</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-886797636501520384</t>
+          <t>t-621875663901863937</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,7 +2416,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-886952472035549185</t>
+          <t>t-1036699556560470016</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,37 +2429,37 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-887152237432061952</t>
+          <t>t-834484332148297728</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-887308832208293888</t>
+          <t>t-715573202714562561</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-888147986982649856</t>
+          <t>t-992484226795823105</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-1030896472881917952</t>
+          <t>t-994221853211267073</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-1042832069506871296</t>
+          <t>t-903173716451909632</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,24 +2494,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-534896855906537472</t>
+          <t>t-694715871097278464</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-1042440160749780992</t>
+          <t>t-753685864471863300</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2520,20 +2520,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-569509595133173761</t>
+          <t>t-707739170878439424</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-580289963599765504</t>
+          <t>t-733452580194410497</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-616575922674769920</t>
+          <t>t-875514382276538369</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,24 +2559,24 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-616694572853256192</t>
+          <t>t-899745107900940288</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-630004911024046080</t>
+          <t>t-899747204986019844</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2585,7 +2585,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-630051857654751232</t>
+          <t>t-758205502480388096</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,11 +2598,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-630833400857919488</t>
+          <t>t-758575120290091008</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2611,33 +2611,33 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-647384012202356736</t>
+          <t>t-864813217943441412</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-648159002224914436</t>
+          <t>t-781685141211058176</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-648232794137718784</t>
+          <t>t-860527262709493760</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-648426685910618112</t>
+          <t>t-1050435927066198018</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,7 +2663,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-721969035412422656</t>
+          <t>t-1054403005032947712</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,11 +2676,11 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-722671206881746944</t>
+          <t>t-1050667252591120384</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -2689,20 +2689,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-745683270160027648</t>
+          <t>t-514175192319680513</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-755726869270523904</t>
+          <t>t-536338799517634560</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,11 +2715,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-802968858214760448</t>
+          <t>t-640924573647503360</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-802970857136123904</t>
+          <t>t-641489320088436736</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,37 +2741,37 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-802986234171768832</t>
+          <t>t-660036667412082688</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-802996470555279360</t>
+          <t>t-660641499701489665</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-803023904860151808</t>
+          <t>t-745382805253677057</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -2780,24 +2780,24 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-803063479473176576</t>
+          <t>t-784456849215123457</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-803165461336555521</t>
+          <t>t-794700824404430848</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-803184972723081216</t>
+          <t>t-898515685369946113</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,76 +2819,76 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-803191488880513024</t>
+          <t>t-905607663798636547</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-803213114628014080</t>
+          <t>t-906292765633515520</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-803415757417758721</t>
+          <t>t-906696780133388288</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-804486553280069633</t>
+          <t>t-956329812573945857</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-953220290657492992</t>
+          <t>t-992252736560222210</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-957285309796044800</t>
+          <t>t-1047282657053298690</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2897,20 +2897,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-957305309328039936</t>
+          <t>t-533407970244456448</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-957621820626276353</t>
+          <t>t-578194227852505088</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,7 +2923,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-958690487875055616</t>
+          <t>t-611619605899939841</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,24 +2936,24 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-984477965856772096</t>
+          <t>t-634745305263640576</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-984491425478971393</t>
+          <t>t-897457481550618624</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-984517270725644288</t>
+          <t>t-967489391517192192</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,20 +2975,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-985567499843489798</t>
+          <t>t-1006674770983817217</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1057289433236545538</t>
+          <t>t-1008536493269237760</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,59 +3001,59 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1061999891080232961</t>
+          <t>t-836289804664979457</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1063070010954932224</t>
+          <t>t-903370281829498882</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1063412203389370368</t>
+          <t>t-577773253898477568</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1063455159370637313</t>
+          <t>t-577808831918579712</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1063463128409800704</t>
+          <t>t-580289963599765504</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3066,33 +3066,33 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1063508201319079936</t>
+          <t>t-586160130313625600</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1063552348386140165</t>
+          <t>t-616575922674769920</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1014627656082579457</t>
+          <t>t-616694572853256192</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,11 +3105,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-685265326112559104</t>
+          <t>t-651743798721122304</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3118,33 +3118,33 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-696805827110428676</t>
+          <t>t-681483416165048320</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-833086724096028673</t>
+          <t>t-705116084911763456</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-893162180492787716</t>
+          <t>t-775760180936048640</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,46 +3157,46 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-655077150693990401</t>
+          <t>t-775760740204552192</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-727758683510329344</t>
+          <t>t-775766510182731776</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-727889856274247680</t>
+          <t>t-775772257327128576</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-821117207245713408</t>
+          <t>t-775805122920189952</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,33 +3209,33 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-578199507671904256</t>
+          <t>t-776165588917944320</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-578943021716250624</t>
+          <t>t-783921439044841474</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-811342708061024256</t>
+          <t>t-784017385615265792</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,11 +3248,11 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-610512692353310721</t>
+          <t>t-784336997477261312</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -3261,20 +3261,20 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-610555659969409025</t>
+          <t>t-784835805999198208</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-698124151282864129</t>
+          <t>t-810931684396896256</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,20 +3287,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-698267386730975232</t>
+          <t>t-811056347773026304</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-698288943490535428</t>
+          <t>t-811268248448724993</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,11 +3313,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-698457478183301120</t>
+          <t>t-894936422980964352</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -3326,37 +3326,37 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-698469723680464897</t>
+          <t>t-903533073358352385</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-698599200850898944</t>
+          <t>t-903589529143189504</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-698812315353903104</t>
+          <t>t-957285309796044800</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -3365,11 +3365,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-772934103733788672</t>
+          <t>t-957305309328039936</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-772960588171403264</t>
+          <t>t-957621820626276353</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,20 +3391,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-773538620472979456</t>
+          <t>t-958690487875055616</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-773979956305100800</t>
+          <t>t-1000764381108555776</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-864137650625753088</t>
+          <t>t-1003317489990848512</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,37 +3430,37 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-864465975068037122</t>
+          <t>t-1003350897521459202</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-864657619700658176</t>
+          <t>t-1003359993201025024</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-571711350180868097</t>
+          <t>t-1003379549600731139</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3469,37 +3469,37 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-648439576441171968</t>
+          <t>t-1006258184636510210</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-649621017187512320</t>
+          <t>t-1026228357996969984</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-798356661148655616</t>
+          <t>t-1041944531015483392</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3508,24 +3508,24 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-798650812511588352</t>
+          <t>t-1042049144620285953</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-850359691771293697</t>
+          <t>t-1057289433236545538</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -3534,37 +3534,37 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-892449776129777665</t>
+          <t>t-1061999891080232961</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-892462041277091840</t>
+          <t>t-1063070010954932224</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-892471980875808773</t>
+          <t>t-1063412203389370368</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-892472490483646466</t>
+          <t>t-1063455159370637313</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,20 +3586,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-892606487482089472</t>
+          <t>t-1063463128409800704</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-892633367342088192</t>
+          <t>t-1063508201319079936</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,24 +3612,24 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-892700840817045504</t>
+          <t>t-1063552348386140165</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-892731725897281538</t>
+          <t>t-833086724096028673</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3638,33 +3638,33 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-729341140499976193</t>
+          <t>t-655077150693990401</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-729421969410564096</t>
+          <t>t-666910428551897088</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-729436964269658112</t>
+          <t>t-946151169231114241</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,24 +3677,24 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-729446762138591232</t>
+          <t>t-951353773321945088</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-729454167735959552</t>
+          <t>t-951370648210767877</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-729749802209054720</t>
+          <t>t-578199507671904256</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,37 +3716,37 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-573281947792883712</t>
+          <t>t-578943021716250624</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-771375628176072704</t>
+          <t>t-610512692353310721</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-887004122628710405</t>
+          <t>t-610555659969409025</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3755,11 +3755,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-887017424306008065</t>
+          <t>t-636560790015877120</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-889534953825779712</t>
+          <t>t-636561226298970112</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,46 +3781,46 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-889639312169500672</t>
+          <t>t-636561581355204609</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-1047526401644138497</t>
+          <t>t-636600809573220352</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-580101390820876288</t>
+          <t>t-636742652692688896</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-580474226571915265</t>
+          <t>t-697026011876233216</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,59 +3833,59 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-581395014502191104</t>
+          <t>t-791567733695606784</t>
         </is>
       </c>
       <c r="B262" t="n">
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-837738761547091968</t>
+          <t>t-778893752471543808</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-724222646435508224</t>
+          <t>t-778933660334559232</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-765721842803802112</t>
+          <t>t-571711350180868097</t>
         </is>
       </c>
       <c r="B265" t="n">
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-766980130283610112</t>
+          <t>t-887375379186548736</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,24 +3898,24 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-851578277311373312</t>
+          <t>t-901999787855228933</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-912188711261036544</t>
+          <t>t-902015237951549441</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3924,33 +3924,33 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-912397778260840448</t>
+          <t>t-924289234399322112</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-912428211253972997</t>
+          <t>t-729341140499976193</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-1038395251214495744</t>
+          <t>t-729421969410564096</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-1038467054960095234</t>
+          <t>t-729436964269658112</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,24 +3976,24 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-1038555106885681153</t>
+          <t>t-729446762138591232</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-1047259835777990656</t>
+          <t>t-729454167735959552</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -4002,7 +4002,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-607899372177747968</t>
+          <t>t-729749802209054720</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,33 +4015,33 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-914224756555055104</t>
+          <t>t-686862688752807937</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-680032445673148416</t>
+          <t>t-771375628176072704</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-639559017052803076</t>
+          <t>t-831479807821103104</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,20 +4054,20 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-756001538783326208</t>
+          <t>t-831825002534154241</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-756128433025843200</t>
+          <t>t-839501967894405121</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,72 +4080,72 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-756153001300156416</t>
+          <t>t-839604530048299008</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-756172674531942400</t>
+          <t>t-1033036271491461120</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-983744396364480512</t>
+          <t>t-1052977443760427009</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-886426015374946304</t>
+          <t>t-874804635327905792</t>
         </is>
       </c>
       <c r="B284" t="n">
         <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-919294420465229824</t>
+          <t>t-1002347419114311681</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-1041361257410904064</t>
+          <t>t-1050145290718564352</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,59 +4158,59 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-1041679427464298496</t>
+          <t>t-1042391419745435648</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-803234433000148994</t>
+          <t>t-601384798897115138</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-803236909183107073</t>
+          <t>t-724222646435508224</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-803260822801649664</t>
+          <t>t-786005533685710849</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-803260889940062209</t>
+          <t>t-848618580681912320</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-803271446357282816</t>
+          <t>t-848657153367953411</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,20 +4236,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-667518003613818880</t>
+          <t>t-848877245439594496</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-753352623630278664</t>
+          <t>t-610843183715463168</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,11 +4262,11 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-803284826191171584</t>
+          <t>t-644964294954741760</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -4275,33 +4275,33 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-863149830931185664</t>
+          <t>t-629437596280750080</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-842138233173626880</t>
+          <t>t-631280418583658496</t>
         </is>
       </c>
       <c r="B297" t="n">
         <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-842141623454687232</t>
+          <t>t-756001538783326208</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-842494366820286465</t>
+          <t>t-756128433025843200</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,20 +4327,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-715468390047961088</t>
+          <t>t-756153001300156416</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-859881873865973760</t>
+          <t>t-756172674531942400</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,7 +4353,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-859891336627048448</t>
+          <t>t-895489338364055553</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,7 +4366,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-859891655167664129</t>
+          <t>t-983744396364480512</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,20 +4379,20 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-853267425386803200</t>
+          <t>t-1006709802775412736</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-910172109506273280</t>
+          <t>t-876856640372387842</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-1009997647032344576</t>
+          <t>t-803234433000148994</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,20 +4418,20 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-880159202567753728</t>
+          <t>t-803236909183107073</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-756636337130774528</t>
+          <t>t-803260822801649664</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,20 +4444,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-946020250805514240</t>
+          <t>t-803260889940062209</t>
         </is>
       </c>
       <c r="B309" t="n">
         <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-1016293496980955136</t>
+          <t>t-803271446357282816</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,20 +4470,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-764984507686490112</t>
+          <t>t-667518003613818880</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-998557475266859013</t>
+          <t>t-715587588204015616</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-999117713749495808</t>
+          <t>t-922944953696899072</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,11 +4509,11 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-781155273763192832</t>
+          <t>t-922950403255341056</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-996488939933401088</t>
+          <t>t-922959565792083968</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,37 +4535,37 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-788788619779665920</t>
+          <t>t-794366500865982467</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-897110070059728897</t>
+          <t>t-679420394223345665</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-897827875231080448</t>
+          <t>t-848401927432019970</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -4574,72 +4574,72 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-823317212446556161</t>
+          <t>t-715468390047961088</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-855194797681897472</t>
+          <t>t-716262349536149504</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-855248575567147008</t>
+          <t>t-931989476401926144</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-939854628749004801</t>
+          <t>t-939871571342249985</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-891439389787774978</t>
+          <t>t-981289690258071552</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-891452469061996544</t>
+          <t>t-913012097595867137</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,7 +4652,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-912214251749744641</t>
+          <t>t-734458703231885312</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,20 +4665,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-913905079392047105</t>
+          <t>t-749466819581411328</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-1045400324041846785</t>
+          <t>t-751165986527674368</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,63 +4691,63 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-1034792477096652801</t>
+          <t>t-751167208219406336</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-673357306764140544</t>
+          <t>t-1021764160093401089</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-521063203389050882</t>
+          <t>t-1022188431483387905</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-521358835361927168</t>
+          <t>t-1022188766964998144</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-642734533335453700</t>
+          <t>t-1022577266117824514</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4756,11 +4756,11 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-650288114116730880</t>
+          <t>t-1023560708376748032</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4769,11 +4769,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-824672856466423809</t>
+          <t>t-1023767948165562368</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -4782,11 +4782,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-1051696567651106816</t>
+          <t>t-1023931290045829121</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4795,24 +4795,24 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-1051874637942947840</t>
+          <t>t-1024052229152669696</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-674956056209063937</t>
+          <t>t-1035527464511053825</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -4821,24 +4821,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-782797044729741312</t>
+          <t>t-843607928133292033</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-1001002093895921665</t>
+          <t>t-895778141523894272</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-522926675542421504</t>
+          <t>t-922899400032178176</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,24 +4860,24 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-699600707318587392</t>
+          <t>t-922934157185110016</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-737154199411122176</t>
+          <t>t-779013669589884928</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -4886,33 +4886,33 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-586533262912315392</t>
+          <t>t-1032899444918898688</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-615884908238651393</t>
+          <t>t-996488939933401088</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-782797451639914497</t>
+          <t>t-897110070059728897</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,11 +4925,11 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-530728667891380225</t>
+          <t>t-897827875231080448</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4938,33 +4938,33 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-580349296182198273</t>
+          <t>t-814665332673703936</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-627009098568073216</t>
+          <t>t-814669018061803521</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-676099835372654592</t>
+          <t>t-855194797681897472</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,46 +4977,46 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-819866466162012160</t>
+          <t>t-855248575567147008</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-544508576757477376</t>
+          <t>t-834760589746569216</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-544546124984762370</t>
+          <t>t-861539001962041345</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-544574124832468992</t>
+          <t>t-863757133304795136</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,7 +5029,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-544578399596187648</t>
+          <t>t-854163806288834560</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,20 +5042,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-544615900180393984</t>
+          <t>t-1047617270736936962</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-544793457190268928</t>
+          <t>t-880054371417018369</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,24 +5068,24 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-544806009018265601</t>
+          <t>t-894457279076020224</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-545012520793436160</t>
+          <t>t-905261367573090305</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-545215683404267523</t>
+          <t>t-907371676148670465</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,46 +5107,46 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-702966418057330688</t>
+          <t>t-961482044650930177</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-703646494901927936</t>
+          <t>t-1042065710745309186</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-737049601983840256</t>
+          <t>t-1043080309376466944</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-737149037674147840</t>
+          <t>t-1043179210905464832</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,20 +5159,20 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-737191991822409729</t>
+          <t>t-527207598521843712</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-737354227509518336</t>
+          <t>t-527210275955818496</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,7 +5185,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-737535367486676992</t>
+          <t>t-527591945795690496</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,76 +5198,76 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-737536409473421313</t>
+          <t>t-542806015075713026</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-737576761286787074</t>
+          <t>t-621860106481762304</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-737578269373960195</t>
+          <t>t-702986489890775040</t>
         </is>
       </c>
       <c r="B369" t="n">
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-737714265268834304</t>
+          <t>t-703410728628305920</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-737924468329328640</t>
+          <t>t-708340740556980225</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-737947084494622720</t>
+          <t>t-970747848747778048</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-738026122630332416</t>
+          <t>t-538351189679939584</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,46 +5289,46 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-738039322344075265</t>
+          <t>t-635439309563260929</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-738045153693335552</t>
+          <t>t-635461097114484736</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-738399731303514112</t>
+          <t>t-635467880918818816</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-738417134443859970</t>
+          <t>t-635469518022803456</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,7 +5341,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-738432094909698048</t>
+          <t>t-635491308438728704</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,20 +5354,20 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-738465959694860289</t>
+          <t>t-635718998781390848</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-738495271307513856</t>
+          <t>t-636228687013265410</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,24 +5380,24 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-738626782371426304</t>
+          <t>t-642734533335453700</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-738645010103603200</t>
+          <t>t-652079150321270784</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5406,11 +5406,11 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-738707246943719426</t>
+          <t>t-652171720393101312</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-738992446231719937</t>
+          <t>t-738823278840664064</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,33 +5432,33 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-739020531689721856</t>
+          <t>t-676836902981513216</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-739105047078948864</t>
+          <t>t-737657149174730753</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-739154724495228928</t>
+          <t>t-737657922885423104</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,20 +5471,20 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-739161314166214656</t>
+          <t>t-738291666285694976</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-739753236761055232</t>
+          <t>t-750337554457694208</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,33 +5497,33 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-739763139001094144</t>
+          <t>t-523536371525623808</t>
         </is>
       </c>
       <c r="B390" t="n">
         <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-739766081125011456</t>
+          <t>t-722253771867181056</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-739840205935546368</t>
+          <t>t-722818069320470529</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-739892598974861314</t>
+          <t>t-722837910135832577</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,11 +5549,11 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-740068412177715200</t>
+          <t>t-722884869374619648</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -5562,50 +5562,50 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-740070843053662208</t>
+          <t>t-723517423786299392</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-740092206627880960</t>
+          <t>t-615884908238651393</t>
         </is>
       </c>
       <c r="B396" t="n">
         <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-740465124390080515</t>
+          <t>t-642554131211755524</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-740535202582253568</t>
+          <t>t-738967171397758976</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -5614,72 +5614,72 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-740538191267106816</t>
+          <t>t-782797451639914497</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-741179165198536704</t>
+          <t>t-832598430291730433</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-787588682731626496</t>
+          <t>t-788324770765008896</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-913063437118341121</t>
+          <t>t-865447859285405696</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-914844848359985152</t>
+          <t>t-865573879527428096</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-915131811310714880</t>
+          <t>t-636255173036388352</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,7 +5692,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-915495031691235329</t>
+          <t>t-737049601983840256</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,20 +5705,20 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-915561177966505984</t>
+          <t>t-737149037674147840</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-925333063336321024</t>
+          <t>t-737191991822409729</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,59 +5731,59 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-976509689000325120</t>
+          <t>t-737354227509518336</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-981811338774183936</t>
+          <t>t-737535367486676992</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-982165823350423552</t>
+          <t>t-737536409473421313</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-649269312625209344</t>
+          <t>t-737576761286787074</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-722777139469283328</t>
+          <t>t-737578269373960195</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,11 +5796,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-846728089912643588</t>
+          <t>t-737714265268834304</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -5809,20 +5809,20 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-1014607937048850434</t>
+          <t>t-737924468329328640</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-1056877276875374593</t>
+          <t>t-737947084494622720</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,37 +5835,37 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-571286359673053184</t>
+          <t>t-738026122630332416</t>
         </is>
       </c>
       <c r="B416" t="n">
         <v>1</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-571344417145135105</t>
+          <t>t-738039322344075265</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-652334979544948736</t>
+          <t>t-738045153693335552</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5874,20 +5874,20 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-820214611416928256</t>
+          <t>t-738399731303514112</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-828957006832795648</t>
+          <t>t-738417134443859970</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,7 +5900,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-831105804946247681</t>
+          <t>t-738432094909698048</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,7 +5913,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-958216984176427008</t>
+          <t>t-738465959694860289</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,24 +5926,24 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-565566410605473792</t>
+          <t>t-738495271307513856</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-837620098416459776</t>
+          <t>t-738626782371426304</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -5952,59 +5952,59 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-1050114319227195392</t>
+          <t>t-738645010103603200</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-707530442468098049</t>
+          <t>t-738707246943719426</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-707587020831518720</t>
+          <t>t-738992446231719937</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-969482754407661568</t>
+          <t>t-739020531689721856</t>
         </is>
       </c>
       <c r="B428" t="n">
         <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-1000392026742034432</t>
+          <t>t-739105047078948864</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,7 +6017,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-1000411846237675521</t>
+          <t>t-739154724495228928</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,7 +6030,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-1000414273863069696</t>
+          <t>t-739161314166214656</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,24 +6043,24 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-1000416714763505664</t>
+          <t>t-739753236761055232</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-670699425879191552</t>
+          <t>t-739763139001094144</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -6069,11 +6069,11 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-756468934379966464</t>
+          <t>t-739766081125011456</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -6082,11 +6082,11 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-1024201138277638144</t>
+          <t>t-739840205935546368</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -6095,50 +6095,50 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-918068732882313216</t>
+          <t>t-739892598974861314</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-988840187785568257</t>
+          <t>t-740068412177715200</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-690751741676142592</t>
+          <t>t-740070843053662208</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-895521975434530816</t>
+          <t>t-740092206627880960</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -6147,24 +6147,24 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-895525136580923394</t>
+          <t>t-740465124390080515</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-956419595136585729</t>
+          <t>t-740535202582253568</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
@@ -6173,11 +6173,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-728815708801531904</t>
+          <t>t-740538191267106816</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -6186,11 +6186,11 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-728860742099849216</t>
+          <t>t-741179165198536704</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
         <v>0</v>
@@ -6199,11 +6199,11 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-1024752032350195712</t>
+          <t>t-744549085244334080</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
         <v>0</v>
@@ -6212,11 +6212,11 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-1050165943790460929</t>
+          <t>t-744630770116005888</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
         <v>0</v>
@@ -6225,24 +6225,24 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-601387987851677696</t>
+          <t>t-745023417267724289</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-601436583682703361</t>
+          <t>t-745961763473080321</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -6251,33 +6251,33 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-940349476509814789</t>
+          <t>t-746461142604668928</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-612221773757681664</t>
+          <t>t-762281733672820736</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-753246884345487361</t>
+          <t>t-787588682731626496</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,11 +6290,11 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-1008938317684060160</t>
+          <t>t-834770863664795650</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -6303,63 +6303,63 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1008975928465248256</t>
+          <t>t-842006165705875457</t>
         </is>
       </c>
       <c r="B452" t="n">
         <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-1008978373484400640</t>
+          <t>t-913063437118341121</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-1008995195113918464</t>
+          <t>t-925333063336321024</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-1009346793090506752</t>
+          <t>t-965524750264135680</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-1009539540728639490</t>
+          <t>t-966320851678318593</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -6368,7 +6368,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-1010058406223400966</t>
+          <t>t-967380419707535360</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,7 +6381,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-1011026406564823042</t>
+          <t>t-974595772317659137</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,33 +6394,33 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-1019348620489969664</t>
+          <t>t-987423120817643520</t>
         </is>
       </c>
       <c r="B459" t="n">
         <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-1021061872274018305</t>
+          <t>t-1001548678748954624</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-997420355043102720</t>
+          <t>t-1001557802375110657</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,33 +6433,33 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-1017675550318612480</t>
+          <t>t-542716499115642881</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>1</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-633506882188021761</t>
+          <t>t-580823195311276032</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-633703854580830208</t>
+          <t>t-652506002957422592</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,11 +6472,11 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-849766480828878849</t>
+          <t>t-1056877276875374593</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -6485,11 +6485,11 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-899696948046856192</t>
+          <t>t-1048216558785449986</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -6498,11 +6498,11 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-1013800752567996416</t>
+          <t>t-657116242692734976</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-1035170375703961601</t>
+          <t>t-697699936171909120</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-1035201829989056512</t>
+          <t>t-697706009293410304</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,33 +6537,33 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-1035614467998998530</t>
+          <t>t-698055021934571520</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-643112220348534784</t>
+          <t>t-698056879210102784</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-650407824212660224</t>
+          <t>t-698065167305805824</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,20 +6576,20 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-650415832523255809</t>
+          <t>t-698086763601006593</t>
         </is>
       </c>
       <c r="B473" t="n">
         <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-650581180757073921</t>
+          <t>t-698453860554244096</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,11 +6602,11 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-650584856162926592</t>
+          <t>t-960782723957870592</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -6615,37 +6615,37 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-650605489492000769</t>
+          <t>t-570985250324656128</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-953295637679951872</t>
+          <t>t-571078007407775744</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-953311292475011072</t>
+          <t>t-571808211742814209</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -6654,7 +6654,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-1056610127975997440</t>
+          <t>t-756468934379966464</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,11 +6667,11 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-664402656019005440</t>
+          <t>t-869260706524397568</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -6680,50 +6680,50 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-859792354395533312</t>
+          <t>t-970012076428193796</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-860626885302202369</t>
+          <t>t-580746776262545409</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-861365904025714688</t>
+          <t>t-862635910306856964</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-861657024731467783</t>
+          <t>t-862992827487309824</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -6732,11 +6732,11 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-861897864632578048</t>
+          <t>t-863003997464080384</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -6745,7 +6745,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-862094425949917185</t>
+          <t>t-863121747360571392</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,7 +6758,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-862663540179701760</t>
+          <t>t-993886363249455104</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-1004612435792232448</t>
+          <t>t-586494775089442816</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,11 +6784,11 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-676501548063657984</t>
+          <t>t-737201412497649664</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
         <v>0</v>
@@ -6797,11 +6797,11 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-681422251338674177</t>
+          <t>t-737877218718797825</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -6810,7 +6810,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-687198236776464384</t>
+          <t>t-738015379373625344</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,11 +6823,11 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-950677684811640833</t>
+          <t>t-738097397058932736</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -6836,50 +6836,50 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-728492484175745024</t>
+          <t>t-738253541266075652</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-979633616404844544</t>
+          <t>t-738419452778274816</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-737663862317682689</t>
+          <t>t-738714074352123904</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-737736248970911744</t>
+          <t>t-817303376253882368</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -6888,20 +6888,20 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-737669645872795648</t>
+          <t>t-957917970390450177</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-743471999876472833</t>
+          <t>t-590431507967299584</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,115 +6914,115 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-737766517157330945</t>
+          <t>t-690751741676142592</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-737944067741454336</t>
+          <t>t-942758921533624320</t>
         </is>
       </c>
       <c r="B500" t="n">
         <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-952868151414403072</t>
+          <t>t-593397061376147456</t>
         </is>
       </c>
       <c r="B501" t="n">
         <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-956876178509516800</t>
+          <t>t-594549643134009344</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-957730126799802368</t>
+          <t>t-624613462476337152</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-753159226390962176</t>
+          <t>t-624628271745998852</t>
         </is>
       </c>
       <c r="B504" t="n">
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-754249103434022912</t>
+          <t>t-720146113794183169</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-952704809529851906</t>
+          <t>t-728815708801531904</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-806105457077186561</t>
+          <t>t-728860742099849216</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
         <v>0</v>
@@ -7031,11 +7031,11 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-806175022247280641</t>
+          <t>t-955871714914766849</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
         <v>0</v>
@@ -7044,11 +7044,11 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-806834354802438144</t>
+          <t>t-968152808062160896</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
         <v>1</v>
@@ -7057,7 +7057,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-906552804285861889</t>
+          <t>t-608642817427156992</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,20 +7070,20 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-819911710349922305</t>
+          <t>t-994824289349242881</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-834805481759789056</t>
+          <t>t-994897053523341314</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,33 +7096,33 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-851409413646802945</t>
+          <t>t-995019257841889281</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-989189175357276160</t>
+          <t>t-995256568429064192</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-859444598309097473</t>
+          <t>t-1008938317684060160</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,46 +7135,46 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-859536182866317312</t>
+          <t>t-1008975928465248256</t>
         </is>
       </c>
       <c r="B516" t="n">
         <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-862454112507580416</t>
+          <t>t-1008978373484400640</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-946052034461040640</t>
+          <t>t-1008995195113918464</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-892499939137335296</t>
+          <t>t-1009346793090506752</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,11 +7187,11 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-1038090181595877376</t>
+          <t>t-1009539540728639490</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
         <v>0</v>
@@ -7200,46 +7200,46 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-904852554470883329</t>
+          <t>t-1010058406223400966</t>
         </is>
       </c>
       <c r="B521" t="n">
         <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-906119454941171712</t>
+          <t>t-1011026406564823042</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-938446444700237824</t>
+          <t>t-849766480828878849</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-1003736255149027328</t>
+          <t>t-900842879182131201</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,24 +7252,24 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-1043053295298899968</t>
+          <t>t-639695836943884288</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-1043072721595375616</t>
+          <t>t-652058053697765376</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
         <v>0</v>
@@ -7278,24 +7278,24 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-1043145723687129090</t>
+          <t>t-653076415596888064</t>
         </is>
       </c>
       <c r="B527" t="n">
         <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-1051774073523634182</t>
+          <t>t-880072530329038848</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
         <v>1</v>
@@ -7304,124 +7304,124 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-1052071039923044352</t>
+          <t>t-652148120952803329</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-1052145118726238209</t>
+          <t>t-859792354395533312</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-1052182549513035776</t>
+          <t>t-860626885302202369</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-845604671851057152</t>
+          <t>t-861365904025714688</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-898971629665099776</t>
+          <t>t-861657024731467783</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-904503608246362112</t>
+          <t>t-861897864632578048</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-512537797442273280</t>
+          <t>t-862094425949917185</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-532541340023017473</t>
+          <t>t-862663540179701760</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-550997963590610944</t>
+          <t>t-784413747376893952</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-551059868657152002</t>
+          <t>t-671784280259866624</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,20 +7434,20 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-551164779646038017</t>
+          <t>t-687198236776464384</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-552328482282553344</t>
+          <t>t-692403922451992576</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,24 +7460,24 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-552381413899898881</t>
+          <t>t-701060752074010624</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-552754433155928064</t>
+          <t>t-734423204488445952</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
         <v>0</v>
@@ -7486,20 +7486,20 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-552860760968138752</t>
+          <t>t-736808558038265858</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-552960294360977408</t>
+          <t>t-956932857389309953</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,24 +7512,24 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-553046169975148544</t>
+          <t>t-957576777848717312</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-553111267569713154</t>
+          <t>t-736607968997838848</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
         <v>1</v>
@@ -7538,11 +7538,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-553535305601392640</t>
+          <t>t-979633616404844544</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
         <v>0</v>
@@ -7551,72 +7551,72 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-557932086149918722</t>
+          <t>t-963803678573547520</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-558466774392266752</t>
+          <t>t-737669645872795648</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-558501767688642560</t>
+          <t>t-933719239126642689</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-558892309320724482</t>
+          <t>t-745170424456052736</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-559263075183104000</t>
+          <t>t-811198180654272512</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-559573400780156928</t>
+          <t>t-754249103434022912</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,20 +7629,20 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-645961089671405568</t>
+          <t>t-755694559401762816</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-666134929525178369</t>
+          <t>t-766238666905747456</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,20 +7655,20 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-666141677652848640</t>
+          <t>t-792319235351535616</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-666146479564681217</t>
+          <t>t-801835115894755328</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,33 +7681,33 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-666155143696506880</t>
+          <t>t-803544744215384064</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-666158894691954689</t>
+          <t>t-991723021709832193</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-666536410439028736</t>
+          <t>t-861335479475634176</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,11 +7720,11 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-666602420022194177</t>
+          <t>t-1019231079817973760</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C561" t="n">
         <v>0</v>
@@ -7733,11 +7733,11 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-666664955077242881</t>
+          <t>t-875285232924188672</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
         <v>1</v>
@@ -7746,7 +7746,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-667221889505296388</t>
+          <t>t-887201249715789824</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,7 +7759,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-667625624421445632</t>
+          <t>t-949166298210082816</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,11 +7772,11 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-667976594137350144</t>
+          <t>t-949999091047477249</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C565" t="n">
         <v>1</v>
@@ -7785,7 +7785,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-668796235004932096</t>
+          <t>t-977185697940623360</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -7798,7 +7798,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-669882207800942593</t>
+          <t>t-1028077071480832000</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,7 +7811,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-837558511772938241</t>
+          <t>t-1043053295298899968</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,7 +7824,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-837704571640246272</t>
+          <t>t-1043072721595375616</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,11 +7837,11 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-890567544695906304</t>
+          <t>t-1043145723687129090</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C570" t="n">
         <v>0</v>
@@ -7850,20 +7850,20 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-947798399184785408</t>
+          <t>t-1043100641466490881</t>
         </is>
       </c>
       <c r="B571" t="n">
         <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-947806740518641664</t>
+          <t>t-1043534562775781377</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,20 +7876,20 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-947808691230822401</t>
+          <t>t-1051774073523634182</t>
         </is>
       </c>
       <c r="B573" t="n">
         <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-947833275673747457</t>
+          <t>t-1052071039923044352</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,20 +7902,20 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-948185680043155456</t>
+          <t>t-1052145118726238209</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-948407157803728896</t>
+          <t>t-1052182549513035776</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,20 +7928,20 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-948721205443358720</t>
+          <t>t-950875222734929921</t>
         </is>
       </c>
       <c r="B577" t="n">
         <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-948800260238815232</t>
+          <t>t-950925554487738369</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -7954,24 +7954,24 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-948884291743870976</t>
+          <t>t-676725475671085057</t>
         </is>
       </c>
       <c r="B579" t="n">
         <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-950179252325859328</t>
+          <t>t-898971629665099776</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C580" t="n">
         <v>1</v>
@@ -7980,20 +7980,20 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-950592034162774021</t>
+          <t>t-512537797442273280</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-950680110948007937</t>
+          <t>t-549142719973445632</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,11 +8006,11 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-951371471217090560</t>
+          <t>t-549750044099088384</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
         <v>1</v>
@@ -8019,50 +8019,50 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-952033538005716993</t>
+          <t>t-549858427787153410</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-952059671258447872</t>
+          <t>t-549861279825817601</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-952061652182028289</t>
+          <t>t-566257094865981440</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-952118349386850304</t>
+          <t>t-648493309824925696</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C587" t="n">
         <v>1</v>
@@ -8071,7 +8071,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-953168990901284865</t>
+          <t>t-790900222368976896</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,7 +8084,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-511340405753786369</t>
+          <t>t-790909371781746688</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,20 +8097,20 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-675258412049956865</t>
+          <t>t-791594802844434434</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-706517570451427328</t>
+          <t>t-796846317632790528</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-728392912636149760</t>
+          <t>t-828910647861616640</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,50 +8136,50 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-772650812623290373</t>
+          <t>t-829261659726295045</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-772781827224285184</t>
+          <t>t-837558511772938241</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-773074057805737984</t>
+          <t>t-837704571640246272</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-777605888655761409</t>
+          <t>t-865948979183222784</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
         <v>1</v>
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-778041943855026178</t>
+          <t>t-875288006172831744</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,7 +8201,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-778431677144018944</t>
+          <t>t-912643743894949888</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,46 +8214,46 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-782517721938300928</t>
+          <t>t-914672240901287936</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>0</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-857957864354086912</t>
+          <t>t-918517038053814277</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-857974981891719168</t>
+          <t>t-930305225726054400</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-1015491573092528128</t>
+          <t>t-994075228354510848</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,11 +8266,11 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-519137345065320448</t>
+          <t>t-1061409798053224448</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
         <v>1</v>
@@ -8279,20 +8279,20 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-585340196557692928</t>
+          <t>t-1061535382406348800</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-662632429539057666</t>
+          <t>t-509160710316650496</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-662681193154920448</t>
+          <t>t-509293535221145601</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-663567974029131776</t>
+          <t>t-772650812623290373</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,33 +8331,33 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-666604346558271489</t>
+          <t>t-772781827224285184</t>
         </is>
       </c>
       <c r="B608" t="n">
         <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-667233953934282752</t>
+          <t>t-773074057805737984</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-713640428369612800</t>
+          <t>t-806390063244410880</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-713641932795215874</t>
+          <t>t-806499176066453505</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,20 +8383,20 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-713645035460251648</t>
+          <t>t-965395788435046400</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-713649642907406336</t>
+          <t>t-976046458834116609</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,24 +8409,24 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-713682083688767488</t>
+          <t>t-527780384159703040</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-714598783724597248</t>
+          <t>t-574404715376603136</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
         <v>1</v>
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-714729459107119104</t>
+          <t>t-583500409458688000</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-715080311059517440</t>
+          <t>t-583500450495795200</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-721601854761619457</t>
+          <t>t-583501741481594881</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-721697193174798336</t>
+          <t>t-583504251168497664</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-838333127739260928</t>
+          <t>t-583504875067056129</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,20 +8500,20 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-838721199874048000</t>
+          <t>t-584246834618474497</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-924905228415193088</t>
+          <t>t-675871788564283392</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,33 +8526,33 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-706405441522143232</t>
+          <t>t-708275780988473345</t>
         </is>
       </c>
       <c r="B623" t="n">
         <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-723687727468683264</t>
+          <t>t-709001129091174403</t>
         </is>
       </c>
       <c r="B624" t="n">
         <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-723764446498152448</t>
+          <t>t-709281433978687488</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-930049646444945408</t>
+          <t>t-713640428369612800</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-930646694097645568</t>
+          <t>t-713641932795215874</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-961643380684959749</t>
+          <t>t-713645035460251648</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,20 +8604,20 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-518708677113438208</t>
+          <t>t-713649642907406336</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-535750936824528896</t>
+          <t>t-713682083688767488</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-535750956848140288</t>
+          <t>t-714598783724597248</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-535751324143341568</t>
+          <t>t-714729459107119104</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-535754365856776193</t>
+          <t>t-715080311059517440</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-535786478451048448</t>
+          <t>t-799522784040849408</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,33 +8682,33 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-678547534269177856</t>
+          <t>t-807384780572459008</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-817345259164221440</t>
+          <t>t-838333127739260928</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-971295308981383168</t>
+          <t>t-838721199874048000</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,11 +8721,11 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-716900054133399553</t>
+          <t>t-842271490141634560</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C638" t="n">
         <v>0</v>
@@ -8734,20 +8734,20 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-777029515289563136</t>
+          <t>t-842322052103122944</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-777052253362335745</t>
+          <t>t-842905808266448896</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,33 +8760,33 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-801391859083988993</t>
+          <t>t-842910185718931456</t>
         </is>
       </c>
       <c r="B641" t="n">
         <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-532101195737735168</t>
+          <t>t-845583720950128640</t>
         </is>
       </c>
       <c r="B642" t="n">
         <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-532807839664730113</t>
+          <t>t-960348165114273792</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,24 +8799,24 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-545394272619331584</t>
+          <t>t-973099299910250497</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-673010347008110593</t>
+          <t>t-548367743385624577</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" t="n">
         <v>1</v>
@@ -8825,37 +8825,37 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-674974370180239360</t>
+          <t>t-563978477183840256</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-685036854010339328</t>
+          <t>t-831995329318772736</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-694769781573050368</t>
+          <t>t-518708677113438208</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -8864,20 +8864,20 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-699788036561743872</t>
+          <t>t-592295516517502976</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-757365069608923136</t>
+          <t>t-712147646559879168</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,11 +8890,11 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-817285829861093377</t>
+          <t>t-788398448508739585</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="n">
         <v>1</v>
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-852718859765202945</t>
+          <t>t-788457694453637120</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-852739972473868290</t>
+          <t>t-795674749028462592</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-919103523458969600</t>
+          <t>t-846329507103436800</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-922457591313137664</t>
+          <t>t-521700184376770560</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,37 +8955,37 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-922793297873010689</t>
+          <t>t-902843730587115520</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-816403303852425216</t>
+          <t>t-780295387017949184</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-935391382331588609</t>
+          <t>t-527311291191263232</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C658" t="n">
         <v>1</v>
@@ -8994,37 +8994,37 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-935397608851324931</t>
+          <t>t-565428032685740033</t>
         </is>
       </c>
       <c r="B659" t="n">
         <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-935407791757389824</t>
+          <t>t-716900054133399553</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-928119470215847936</t>
+          <t>t-832183739346063361</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C661" t="n">
         <v>1</v>
@@ -9033,37 +9033,37 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-695999176518184960</t>
+          <t>t-919610638351003649</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-753418052503502848</t>
+          <t>t-919611818183503872</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-776553403992252416</t>
+          <t>t-919614704967757825</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,20 +9072,20 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-776953291594866688</t>
+          <t>t-919712337681985537</t>
         </is>
       </c>
       <c r="B665" t="n">
         <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-776996787567464448</t>
+          <t>t-919728404907167744</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-777018247778631680</t>
+          <t>t-919751765871886336</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,20 +9111,20 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-777139839556648960</t>
+          <t>t-919766847666274304</t>
         </is>
       </c>
       <c r="B668" t="n">
         <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-777163982893223936</t>
+          <t>t-919943414766063617</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,20 +9137,20 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-859771332908777474</t>
+          <t>t-920179252292739072</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-919895715089932288</t>
+          <t>t-920416544319926272</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-964122358905823232</t>
+          <t>t-969977636670918656</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-987943018454962177</t>
+          <t>t-674974370180239360</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,11 +9189,11 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-544020486527528960</t>
+          <t>t-757365069608923136</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
         <v>1</v>
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-960667988255850496</t>
+          <t>t-797741772730306560</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-547361002212188160</t>
+          <t>t-797789959478353920</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-597692277847298049</t>
+          <t>t-797794521597644800</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-796490215078711296</t>
+          <t>t-961453081543065600</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-812248571802025984</t>
+          <t>t-544711019629907968</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,11 +9267,11 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-857803058968838144</t>
+          <t>t-544769671799394304</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C680" t="n">
         <v>1</v>
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-857867986841079808</t>
+          <t>t-544813894037147648</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-966644863226732544</t>
+          <t>t-545169541052243968</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-966649635170238465</t>
+          <t>t-536910791295778816</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,24 +9319,24 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-993018034288705536</t>
+          <t>t-670770027604213760</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-550867696435200000</t>
+          <t>t-540776934658277377</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-550870336418234368</t>
+          <t>t-723151439586013184</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,11 +9358,11 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-550963305326862336</t>
+          <t>t-745418927845453825</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-551099005388599297</t>
+          <t>t-773077201063407617</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-551184362054500352</t>
+          <t>t-776553403992252416</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-1037871134488707072</t>
+          <t>t-776953291594866688</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-1037879643695529985</t>
+          <t>t-776996787567464448</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-1037893136482103296</t>
+          <t>t-777018247778631680</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-1037997508973060096</t>
+          <t>t-777139839556648960</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-556107639625510912</t>
+          <t>t-777163982893223936</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-579496758595584000</t>
+          <t>t-820620984231174145</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,11 +9475,11 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-658189046523412480</t>
+          <t>t-919895715089932288</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C696" t="n">
         <v>1</v>
@@ -9488,11 +9488,11 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-706439330877714432</t>
+          <t>t-544020486527528960</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697" t="n">
         <v>1</v>
@@ -9501,20 +9501,20 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-832028212376985600</t>
+          <t>t-567587172367077376</t>
         </is>
       </c>
       <c r="B698" t="n">
         <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-832064333504933888</t>
+          <t>t-577656940282540032</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-946271534502395905</t>
+          <t>t-547361002212188160</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,24 +9540,24 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-962542177514500096</t>
+          <t>t-547937617547771905</t>
         </is>
       </c>
       <c r="B701" t="n">
         <v>0</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-936534965277294597</t>
+          <t>t-984973285124222976</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
         <v>0</v>
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-936606274795462656</t>
+          <t>t-599804476774436864</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-950566545595551745</t>
+          <t>t-941530453147836416</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,20 +9592,20 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-564347457773920257</t>
+          <t>t-1037871134488707072</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-563242661562576896</t>
+          <t>t-1037879643695529985</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-564304402253508608</t>
+          <t>t-1037893136482103296</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,50 +9631,50 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-729180420265279489</t>
+          <t>t-1037997508973060096</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-729281192772542465</t>
+          <t>t-579496758595584000</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-741496457824374784</t>
+          <t>t-839272244895309824</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-761430337377349632</t>
+          <t>t-561946682707812352</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -9683,20 +9683,20 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-775600763481436160</t>
+          <t>t-936534965277294597</t>
         </is>
       </c>
       <c r="B712" t="n">
         <v>1</v>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-978443713629204480</t>
+          <t>t-936606274795462656</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,20 +9709,20 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-978559522900910080</t>
+          <t>t-950566545595551745</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-979975965760720898</t>
+          <t>t-754793839844397056</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,20 +9735,20 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-998840776758120448</t>
+          <t>t-950713527123066881</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-720546793344270336</t>
+          <t>t-677428252881784832</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-729241413867556864</t>
+          <t>t-720546793344270336</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-777104599379423233</t>
+          <t>t-729241413867556864</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-777106884058763264</t>
+          <t>t-777104599379423233</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-819830340390830081</t>
+          <t>t-777106884058763264</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-935268837662052353</t>
+          <t>t-819830340390830081</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,24 +9826,24 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-935313787321585664</t>
+          <t>t-863292024522395649</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-935539265307660289</t>
+          <t>t-1016913242839367680</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C724" t="n">
         <v>1</v>
@@ -9852,24 +9852,24 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-935690311879282688</t>
+          <t>t-683203716623646720</t>
         </is>
       </c>
       <c r="B725" t="n">
         <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-936855089326604288</t>
+          <t>t-685863458978443264</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C726" t="n">
         <v>0</v>
@@ -9878,20 +9878,20 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-997052112126136320</t>
+          <t>t-820218394255339521</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-610619808913076224</t>
+          <t>t-702431733740920832</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-792051379564969985</t>
+          <t>t-702439207684464640</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,20 +9917,20 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-877794875583934464</t>
+          <t>t-786434119072821249</t>
         </is>
       </c>
       <c r="B730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-737450472194211841</t>
+          <t>t-816256005461987328</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,26 +9943,13 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-737498199435317252</t>
+          <t>t-833891988315336704</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-816256005461987328</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>1</v>
-      </c>
-      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
